--- a/NformTester/NformTester/Keywordscripts/TST1133_UnacknowledgedAlarmColor.xlsx
+++ b/NformTester/NformTester/Keywordscripts/TST1133_UnacknowledgedAlarmColor.xlsx
@@ -1299,7 +1299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8823" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8928" uniqueCount="944">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4159,10 +4159,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"User Acknowledged"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"System Acknowledged"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4199,11 +4195,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;Verify that settings on Gadget.</t>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;</t>
+    <t>;Reset on User Options.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"196"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"46"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"146"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"212"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4365,7 +4389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4381,9 +4405,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4414,273 +4435,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4985,10 +4740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N260"/>
+  <dimension ref="A1:N270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C235" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="J258" sqref="J258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5069,7 +4824,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="16"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
@@ -5081,7 +4836,7 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>857</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -5103,19 +4858,19 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="16"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>815</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>861</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -5133,13 +4888,13 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="16"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>41201</v>
       </c>
       <c r="C5" s="3">
@@ -5157,13 +4912,13 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="16"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3">
         <v>5</v>
       </c>
@@ -5179,20 +4934,20 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="16"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>818</v>
       </c>
       <c r="B7" s="6">
-        <v>35</v>
+        <v>265</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>937</v>
+      <c r="D7" s="14" t="s">
+        <v>935</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>620</v>
@@ -5219,7 +4974,7 @@
       <c r="M7" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="N7" s="16"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="15">
       <c r="A8" s="2" t="s">
@@ -5241,19 +4996,19 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="16"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>820</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -5271,15 +5026,15 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="16"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -5297,17 +5052,17 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="16"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -5325,13 +5080,13 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="16"/>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" ht="15">
       <c r="A12" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="3">
         <v>11</v>
       </c>
@@ -5347,17 +5102,17 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="16"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -5375,17 +5130,17 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="16"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -5403,17 +5158,17 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="16"/>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -5433,17 +5188,17 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="16"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3">
         <v>15</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -5463,17 +5218,17 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="16"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>827</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -5493,17 +5248,17 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="16"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>828</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -5521,19 +5276,19 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="16"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>820</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>875</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -5549,17 +5304,17 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="16"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3">
         <v>19</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -5579,17 +5334,17 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="16"/>
+      <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="3">
         <v>20</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -5615,7 +5370,7 @@
       <c r="C22" s="3">
         <v>21</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -5639,7 +5394,7 @@
       <c r="C23" s="3">
         <v>22</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -5663,7 +5418,7 @@
       <c r="C24" s="3">
         <v>23</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>881</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -5685,7 +5440,7 @@
       <c r="C25" s="3">
         <v>24</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -5703,13 +5458,13 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="16"/>
+      <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14">
       <c r="C26" s="3">
         <v>25</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -5727,13 +5482,13 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="16"/>
+      <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14">
       <c r="C27" s="3">
         <v>26</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -5751,7 +5506,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="16"/>
+      <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:14" ht="15">
       <c r="C28" s="3">
@@ -5769,13 +5524,13 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="16"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14">
       <c r="C29" s="3">
         <v>28</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -5793,13 +5548,13 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="16"/>
+      <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:14">
       <c r="C30" s="3">
         <v>29</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -5817,13 +5572,13 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="16"/>
+      <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14">
       <c r="C31" s="3">
         <v>30</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -5847,13 +5602,13 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="16"/>
+      <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14">
       <c r="C32" s="3">
         <v>31</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -5877,13 +5632,13 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="16"/>
+      <c r="N32" s="15"/>
     </row>
     <row r="33" spans="3:14">
       <c r="C33" s="3">
         <v>32</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -5907,13 +5662,13 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="16"/>
+      <c r="N33" s="15"/>
     </row>
     <row r="34" spans="3:14">
       <c r="C34" s="3">
         <v>33</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -5937,7 +5692,7 @@
       <c r="C35" s="3">
         <v>34</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -5961,7 +5716,7 @@
       <c r="C36" s="3">
         <v>35</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="14" t="s">
         <v>881</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -6001,7 +5756,7 @@
       <c r="C38" s="3">
         <v>37</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -6025,7 +5780,7 @@
       <c r="C39" s="3">
         <v>38</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -6049,7 +5804,7 @@
       <c r="C40" s="3">
         <v>39</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="14" t="s">
         <v>881</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -6071,7 +5826,7 @@
       <c r="C41" s="3">
         <v>40</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -6095,7 +5850,7 @@
       <c r="C42" s="3">
         <v>41</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -6125,7 +5880,7 @@
       <c r="C43" s="3">
         <v>42</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -6155,7 +5910,7 @@
       <c r="C44" s="3">
         <v>43</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -6185,7 +5940,7 @@
       <c r="C45" s="3">
         <v>44</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -6205,13 +5960,13 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-      <c r="N45" s="16"/>
+      <c r="N45" s="15"/>
     </row>
     <row r="46" spans="3:14">
       <c r="C46" s="3">
         <v>45</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -6231,13 +5986,13 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-      <c r="N46" s="16"/>
+      <c r="N46" s="15"/>
     </row>
     <row r="47" spans="3:14">
       <c r="C47" s="3">
         <v>46</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -6257,13 +6012,13 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-      <c r="N47" s="16"/>
+      <c r="N47" s="15"/>
     </row>
     <row r="48" spans="3:14">
       <c r="C48" s="3">
         <v>47</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -6281,13 +6036,13 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
-      <c r="N48" s="16"/>
+      <c r="N48" s="15"/>
     </row>
     <row r="49" spans="3:14">
       <c r="C49" s="3">
         <v>48</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="14" t="s">
         <v>875</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -6303,13 +6058,13 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
-      <c r="N49" s="16"/>
+      <c r="N49" s="15"/>
     </row>
     <row r="50" spans="3:14">
       <c r="C50" s="3">
         <v>49</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E50" s="3" t="s">
@@ -6333,7 +6088,7 @@
       <c r="C51" s="3">
         <v>50</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -6357,7 +6112,7 @@
       <c r="C52" s="3">
         <v>51</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="14" t="s">
         <v>881</v>
       </c>
       <c r="E52" s="3" t="s">
@@ -6379,7 +6134,7 @@
       <c r="C53" s="3">
         <v>52</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -6403,7 +6158,7 @@
       <c r="C54" s="3">
         <v>53</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -6433,7 +6188,7 @@
       <c r="C55" s="3">
         <v>54</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E55" s="3" t="s">
@@ -6463,7 +6218,7 @@
       <c r="C56" s="3">
         <v>55</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E56" s="3" t="s">
@@ -6493,7 +6248,7 @@
       <c r="C57" s="3">
         <v>56</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -6513,13 +6268,13 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
-      <c r="N57" s="16"/>
+      <c r="N57" s="15"/>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="3">
         <v>57</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E58" s="3" t="s">
@@ -6539,13 +6294,13 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
-      <c r="N58" s="16"/>
+      <c r="N58" s="15"/>
     </row>
     <row r="59" spans="3:14">
       <c r="C59" s="3">
         <v>58</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E59" s="3" t="s">
@@ -6565,13 +6320,13 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
-      <c r="N59" s="16"/>
+      <c r="N59" s="15"/>
     </row>
     <row r="60" spans="3:14">
       <c r="C60" s="3">
         <v>59</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E60" s="3" t="s">
@@ -6589,13 +6344,13 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
-      <c r="N60" s="16"/>
+      <c r="N60" s="15"/>
     </row>
     <row r="61" spans="3:14">
       <c r="C61" s="3">
         <v>60</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="14" t="s">
         <v>875</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -6611,13 +6366,13 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
-      <c r="N61" s="16"/>
+      <c r="N61" s="15"/>
     </row>
     <row r="62" spans="3:14">
       <c r="C62" s="3">
         <v>61</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -6641,7 +6396,7 @@
       <c r="C63" s="3">
         <v>62</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -6665,7 +6420,7 @@
       <c r="C64" s="3">
         <v>63</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="14" t="s">
         <v>881</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -6687,7 +6442,7 @@
       <c r="C65" s="3">
         <v>64</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -6711,7 +6466,7 @@
       <c r="C66" s="3">
         <v>65</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E66" s="3" t="s">
@@ -6741,7 +6496,7 @@
       <c r="C67" s="3">
         <v>66</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E67" s="3" t="s">
@@ -6771,7 +6526,7 @@
       <c r="C68" s="3">
         <v>67</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E68" s="3" t="s">
@@ -6801,7 +6556,7 @@
       <c r="C69" s="3">
         <v>68</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -6825,7 +6580,7 @@
       <c r="C70" s="3">
         <v>69</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E70" s="3" t="s">
@@ -6849,7 +6604,7 @@
       <c r="C71" s="3">
         <v>70</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E71" s="3" t="s">
@@ -6873,7 +6628,7 @@
       <c r="C72" s="3">
         <v>71</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E72" s="3" t="s">
@@ -6897,7 +6652,7 @@
       <c r="C73" s="3">
         <v>72</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E73" s="3" t="s">
@@ -6927,7 +6682,7 @@
       <c r="C74" s="3">
         <v>73</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E74" s="3" t="s">
@@ -6957,7 +6712,7 @@
       <c r="C75" s="3">
         <v>74</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E75" s="3" t="s">
@@ -6987,7 +6742,7 @@
       <c r="C76" s="3">
         <v>75</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E76" s="3" t="s">
@@ -7011,7 +6766,7 @@
       <c r="C77" s="3">
         <v>76</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -7035,7 +6790,7 @@
       <c r="C78" s="3">
         <v>77</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E78" s="3" t="s">
@@ -7059,7 +6814,7 @@
       <c r="C79" s="3">
         <v>78</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E79" s="3" t="s">
@@ -7089,7 +6844,7 @@
       <c r="C80" s="3">
         <v>79</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -7119,7 +6874,7 @@
       <c r="C81" s="3">
         <v>80</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E81" s="3" t="s">
@@ -7149,7 +6904,7 @@
       <c r="C82" s="3">
         <v>81</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E82" s="3" t="s">
@@ -7173,7 +6928,7 @@
       <c r="C83" s="3">
         <v>82</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E83" s="3" t="s">
@@ -7197,7 +6952,7 @@
       <c r="C84" s="3">
         <v>83</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E84" s="3" t="s">
@@ -7221,7 +6976,7 @@
       <c r="C85" s="3">
         <v>84</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E85" s="3" t="s">
@@ -7251,7 +7006,7 @@
       <c r="C86" s="3">
         <v>85</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -7281,7 +7036,7 @@
       <c r="C87" s="3">
         <v>86</v>
       </c>
-      <c r="D87" s="15" t="s">
+      <c r="D87" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E87" s="3" t="s">
@@ -7311,7 +7066,7 @@
       <c r="C88" s="3">
         <v>87</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D88" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E88" s="3" t="s">
@@ -7335,7 +7090,7 @@
       <c r="C89" s="3">
         <v>88</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D89" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E89" s="3" t="s">
@@ -7359,7 +7114,7 @@
       <c r="C90" s="3">
         <v>89</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E90" s="3" t="s">
@@ -7383,7 +7138,7 @@
       <c r="C91" s="3">
         <v>90</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D91" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E91" s="3" t="s">
@@ -7413,7 +7168,7 @@
       <c r="C92" s="3">
         <v>91</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D92" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E92" s="3" t="s">
@@ -7443,7 +7198,7 @@
       <c r="C93" s="3">
         <v>92</v>
       </c>
-      <c r="D93" s="15" t="s">
+      <c r="D93" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -7473,7 +7228,7 @@
       <c r="C94" s="3">
         <v>93</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -7497,7 +7252,7 @@
       <c r="C95" s="3">
         <v>94</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="D95" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E95" s="3" t="s">
@@ -7521,7 +7276,7 @@
       <c r="C96" s="3">
         <v>95</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D96" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E96" s="3" t="s">
@@ -7545,7 +7300,7 @@
       <c r="C97" s="3">
         <v>96</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D97" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E97" s="3" t="s">
@@ -7575,7 +7330,7 @@
       <c r="C98" s="3">
         <v>97</v>
       </c>
-      <c r="D98" s="15" t="s">
+      <c r="D98" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E98" s="3" t="s">
@@ -7605,7 +7360,7 @@
       <c r="C99" s="3">
         <v>98</v>
       </c>
-      <c r="D99" s="15" t="s">
+      <c r="D99" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E99" s="3" t="s">
@@ -7635,7 +7390,7 @@
       <c r="C100" s="3">
         <v>99</v>
       </c>
-      <c r="D100" s="15" t="s">
+      <c r="D100" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E100" s="3" t="s">
@@ -7659,7 +7414,7 @@
       <c r="C101" s="3">
         <v>100</v>
       </c>
-      <c r="D101" s="15" t="s">
+      <c r="D101" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E101" s="3" t="s">
@@ -7683,7 +7438,7 @@
       <c r="C102" s="3">
         <v>101</v>
       </c>
-      <c r="D102" s="15" t="s">
+      <c r="D102" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E102" s="3" t="s">
@@ -7707,7 +7462,7 @@
       <c r="C103" s="3">
         <v>102</v>
       </c>
-      <c r="D103" s="15" t="s">
+      <c r="D103" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E103" s="3" t="s">
@@ -7731,7 +7486,7 @@
       <c r="C104" s="3">
         <v>103</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E104" s="3" t="s">
@@ -7761,7 +7516,7 @@
       <c r="C105" s="3">
         <v>104</v>
       </c>
-      <c r="D105" s="15" t="s">
+      <c r="D105" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E105" s="3" t="s">
@@ -7791,7 +7546,7 @@
       <c r="C106" s="3">
         <v>105</v>
       </c>
-      <c r="D106" s="15" t="s">
+      <c r="D106" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E106" s="3" t="s">
@@ -7821,7 +7576,7 @@
       <c r="C107" s="3">
         <v>106</v>
       </c>
-      <c r="D107" s="15" t="s">
+      <c r="D107" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E107" s="3" t="s">
@@ -7845,7 +7600,7 @@
       <c r="C108" s="3">
         <v>107</v>
       </c>
-      <c r="D108" s="15" t="s">
+      <c r="D108" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E108" s="3" t="s">
@@ -7869,7 +7624,7 @@
       <c r="C109" s="3">
         <v>108</v>
       </c>
-      <c r="D109" s="15" t="s">
+      <c r="D109" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E109" s="3" t="s">
@@ -7893,7 +7648,7 @@
       <c r="C110" s="3">
         <v>109</v>
       </c>
-      <c r="D110" s="15" t="s">
+      <c r="D110" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E110" s="3" t="s">
@@ -7923,7 +7678,7 @@
       <c r="C111" s="3">
         <v>110</v>
       </c>
-      <c r="D111" s="15" t="s">
+      <c r="D111" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E111" s="3" t="s">
@@ -7953,7 +7708,7 @@
       <c r="C112" s="3">
         <v>111</v>
       </c>
-      <c r="D112" s="15" t="s">
+      <c r="D112" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E112" s="3" t="s">
@@ -7983,7 +7738,7 @@
       <c r="C113" s="3">
         <v>112</v>
       </c>
-      <c r="D113" s="15" t="s">
+      <c r="D113" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E113" s="3" t="s">
@@ -8007,7 +7762,7 @@
       <c r="C114" s="3">
         <v>113</v>
       </c>
-      <c r="D114" s="15" t="s">
+      <c r="D114" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E114" s="3" t="s">
@@ -8031,7 +7786,7 @@
       <c r="C115" s="3">
         <v>114</v>
       </c>
-      <c r="D115" s="15" t="s">
+      <c r="D115" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E115" s="3" t="s">
@@ -8055,7 +7810,7 @@
       <c r="C116" s="3">
         <v>115</v>
       </c>
-      <c r="D116" s="15" t="s">
+      <c r="D116" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E116" s="3" t="s">
@@ -8085,7 +7840,7 @@
       <c r="C117" s="3">
         <v>116</v>
       </c>
-      <c r="D117" s="15" t="s">
+      <c r="D117" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E117" s="3" t="s">
@@ -8115,7 +7870,7 @@
       <c r="C118" s="3">
         <v>117</v>
       </c>
-      <c r="D118" s="15" t="s">
+      <c r="D118" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E118" s="3" t="s">
@@ -8145,7 +7900,7 @@
       <c r="C119" s="3">
         <v>118</v>
       </c>
-      <c r="D119" s="15" t="s">
+      <c r="D119" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E119" s="3" t="s">
@@ -8169,7 +7924,7 @@
       <c r="C120" s="3">
         <v>119</v>
       </c>
-      <c r="D120" s="15" t="s">
+      <c r="D120" s="14" t="s">
         <v>875</v>
       </c>
       <c r="E120" s="3" t="s">
@@ -8191,14 +7946,14 @@
       <c r="C121" s="3">
         <v>120</v>
       </c>
-      <c r="D121" s="15" t="s">
+      <c r="D121" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>883</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>2</v>
@@ -8233,7 +7988,7 @@
       <c r="C123" s="3">
         <v>122</v>
       </c>
-      <c r="D123" s="15" t="s">
+      <c r="D123" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E123" s="3" t="s">
@@ -8245,7 +8000,7 @@
       <c r="G123" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H123" s="8"/>
+      <c r="H123" s="7"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -8257,7 +8012,7 @@
       <c r="C124" s="3">
         <v>123</v>
       </c>
-      <c r="D124" s="15" t="s">
+      <c r="D124" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E124" s="3" t="s">
@@ -8283,7 +8038,7 @@
       <c r="C125" s="3">
         <v>124</v>
       </c>
-      <c r="D125" s="15" t="s">
+      <c r="D125" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E125" s="3" t="s">
@@ -8295,7 +8050,7 @@
       <c r="G125" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H125" s="8" t="s">
+      <c r="H125" s="7" t="s">
         <v>921</v>
       </c>
       <c r="I125" s="3"/>
@@ -8309,7 +8064,7 @@
       <c r="C126" s="3">
         <v>125</v>
       </c>
-      <c r="D126" s="15" t="s">
+      <c r="D126" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E126" s="3" t="s">
@@ -8333,7 +8088,7 @@
       <c r="C127" s="3">
         <v>126</v>
       </c>
-      <c r="D127" s="15" t="s">
+      <c r="D127" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E127" s="3" t="s">
@@ -8351,13 +8106,13 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
-      <c r="N127" s="16"/>
+      <c r="N127" s="15"/>
     </row>
     <row r="128" spans="3:14">
       <c r="C128" s="3">
         <v>127</v>
       </c>
-      <c r="D128" s="15" t="s">
+      <c r="D128" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E128" s="3" t="s">
@@ -8381,13 +8136,13 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
-      <c r="N128" s="16"/>
+      <c r="N128" s="15"/>
     </row>
     <row r="129" spans="3:14">
       <c r="C129" s="3">
         <v>128</v>
       </c>
-      <c r="D129" s="15" t="s">
+      <c r="D129" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E129" s="3" t="s">
@@ -8411,13 +8166,13 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
-      <c r="N129" s="16"/>
+      <c r="N129" s="15"/>
     </row>
     <row r="130" spans="3:14">
       <c r="C130" s="3">
         <v>129</v>
       </c>
-      <c r="D130" s="15" t="s">
+      <c r="D130" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E130" s="3" t="s">
@@ -8441,65 +8196,75 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
-      <c r="N130" s="16"/>
+      <c r="N130" s="15"/>
     </row>
     <row r="131" spans="3:14">
       <c r="C131" s="3">
         <v>130</v>
       </c>
-      <c r="D131" s="15" t="s">
-        <v>869</v>
+      <c r="D131" s="14" t="s">
+        <v>875</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="F131" s="3">
+        <v>2</v>
+      </c>
+      <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
-      <c r="N131" s="16"/>
-    </row>
-    <row r="132" spans="3:14" ht="15">
+      <c r="N131" s="5"/>
+    </row>
+    <row r="132" spans="3:14">
       <c r="C132" s="3">
         <v>131</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
+      <c r="D132" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>940</v>
+      </c>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
-      <c r="N132" s="16"/>
+      <c r="N132" s="15"/>
     </row>
     <row r="133" spans="3:14">
       <c r="C133" s="3">
         <v>132</v>
       </c>
-      <c r="D133" s="15" t="s">
-        <v>875</v>
+      <c r="D133" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F133" s="3">
-        <v>2</v>
-      </c>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>941</v>
+      </c>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -8511,20 +8276,20 @@
       <c r="C134" s="3">
         <v>133</v>
       </c>
-      <c r="D134" s="15" t="s">
+      <c r="D134" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>158</v>
+        <v>851</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>922</v>
+        <v>880</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
@@ -8537,14 +8302,14 @@
       <c r="C135" s="3">
         <v>134</v>
       </c>
-      <c r="D135" s="15" t="s">
+      <c r="D135" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>154</v>
+        <v>853</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>2</v>
@@ -8561,14 +8326,14 @@
       <c r="C136" s="3">
         <v>135</v>
       </c>
-      <c r="D136" s="15" t="s">
+      <c r="D136" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>840</v>
+        <v>17</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>2</v>
@@ -8579,113 +8344,93 @@
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
-      <c r="N136" s="16"/>
+      <c r="N136" s="15"/>
     </row>
     <row r="137" spans="3:14">
       <c r="C137" s="3">
         <v>136</v>
       </c>
-      <c r="D137" s="15" t="s">
+      <c r="D137" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>845</v>
+        <v>17</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="J137" s="3">
-        <v>196</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
-      <c r="N137" s="16"/>
-    </row>
-    <row r="138" spans="3:14">
+      <c r="N137" s="5"/>
+    </row>
+    <row r="138" spans="3:14" ht="15">
       <c r="C138" s="3">
         <v>137</v>
       </c>
-      <c r="D138" s="15" t="s">
-        <v>869</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H138" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="J138" s="3">
-        <v>38</v>
-      </c>
+      <c r="D138" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
-      <c r="N138" s="16"/>
+      <c r="N138" s="15"/>
     </row>
     <row r="139" spans="3:14">
       <c r="C139" s="3">
         <v>138</v>
       </c>
-      <c r="D139" s="15" t="s">
+      <c r="D139" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>851</v>
+        <v>51</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="J139" s="3">
-        <v>46</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H139" s="7"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
-      <c r="N139" s="16"/>
+      <c r="N139" s="5"/>
     </row>
     <row r="140" spans="3:14">
       <c r="C140" s="3">
         <v>139</v>
       </c>
-      <c r="D140" s="15" t="s">
-        <v>875</v>
+      <c r="D140" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F140" s="3">
-        <v>2</v>
-      </c>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>876</v>
+      </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -8697,47 +8442,45 @@
       <c r="C141" s="3">
         <v>140</v>
       </c>
-      <c r="D141" s="15" t="s">
+      <c r="D141" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>845</v>
+        <v>158</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
-      <c r="N141" s="16"/>
+      <c r="N141" s="5"/>
     </row>
     <row r="142" spans="3:14">
       <c r="C142" s="3">
         <v>141</v>
       </c>
-      <c r="D142" s="15" t="s">
+      <c r="D142" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>848</v>
+        <v>154</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>915</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
@@ -8749,117 +8492,133 @@
       <c r="C143" s="3">
         <v>142</v>
       </c>
-      <c r="D143" s="15" t="s">
+      <c r="D143" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>880</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
-      <c r="N143" s="5"/>
+      <c r="N143" s="15"/>
     </row>
     <row r="144" spans="3:14">
       <c r="C144" s="3">
         <v>143</v>
       </c>
-      <c r="D144" s="15" t="s">
+      <c r="D144" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="J144" s="3">
+        <v>196</v>
+      </c>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
-      <c r="N144" s="5"/>
+      <c r="N144" s="15"/>
     </row>
     <row r="145" spans="3:14">
       <c r="C145" s="3">
         <v>144</v>
       </c>
-      <c r="D145" s="15" t="s">
-        <v>875</v>
+      <c r="D145" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F145" s="3">
-        <v>2</v>
-      </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="J145" s="3">
+        <v>38</v>
+      </c>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
-      <c r="N145" s="5"/>
+      <c r="N145" s="15"/>
     </row>
     <row r="146" spans="3:14">
       <c r="C146" s="3">
         <v>145</v>
       </c>
-      <c r="D146" s="15" t="s">
+      <c r="D146" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>17</v>
+        <v>851</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="J146" s="3">
+        <v>46</v>
+      </c>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
-      <c r="N146" s="5"/>
-    </row>
-    <row r="147" spans="3:14" ht="14.25" customHeight="1">
+      <c r="N146" s="15"/>
+    </row>
+    <row r="147" spans="3:14">
       <c r="C147" s="3">
         <v>146</v>
       </c>
-      <c r="D147" s="15" t="s">
+      <c r="D147" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H147" s="3" t="s">
-        <v>927</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
@@ -8867,23 +8626,25 @@
       <c r="M147" s="3"/>
       <c r="N147" s="5"/>
     </row>
-    <row r="148" spans="3:14">
+    <row r="148" spans="3:14" ht="14.25" customHeight="1">
       <c r="C148" s="3">
         <v>147</v>
       </c>
-      <c r="D148" s="15" t="s">
+      <c r="D148" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H148" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>926</v>
+      </c>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
@@ -8895,14 +8656,14 @@
       <c r="C149" s="3">
         <v>148</v>
       </c>
-      <c r="D149" s="15" t="s">
+      <c r="D149" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>840</v>
+        <v>154</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>2</v>
@@ -8913,50 +8674,44 @@
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
-      <c r="N149" s="16"/>
+      <c r="N149" s="5"/>
     </row>
     <row r="150" spans="3:14">
       <c r="C150" s="3">
         <v>149</v>
       </c>
-      <c r="D150" s="15" t="s">
+      <c r="D150" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H150" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="J150" s="3">
-        <v>146</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
-      <c r="N150" s="16"/>
+      <c r="N150" s="15"/>
     </row>
     <row r="151" spans="3:14">
       <c r="C151" s="3">
         <v>150</v>
       </c>
-      <c r="D151" s="15" t="s">
+      <c r="D151" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>7</v>
@@ -8968,25 +8723,25 @@
         <v>836</v>
       </c>
       <c r="J151" s="3">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
-      <c r="N151" s="16"/>
+      <c r="N151" s="15"/>
     </row>
     <row r="152" spans="3:14">
       <c r="C152" s="3">
         <v>151</v>
       </c>
-      <c r="D152" s="15" t="s">
+      <c r="D152" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>7</v>
@@ -8998,47 +8753,55 @@
         <v>836</v>
       </c>
       <c r="J152" s="3">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
-      <c r="N152" s="16"/>
+      <c r="N152" s="15"/>
     </row>
     <row r="153" spans="3:14">
       <c r="C153" s="3">
         <v>152</v>
       </c>
-      <c r="D153" s="15" t="s">
-        <v>875</v>
+      <c r="D153" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F153" s="3">
-        <v>2</v>
-      </c>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="J153" s="3">
+        <v>0</v>
+      </c>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
-      <c r="N153" s="5"/>
+      <c r="N153" s="15"/>
     </row>
     <row r="154" spans="3:14">
       <c r="C154" s="3">
         <v>153</v>
       </c>
-      <c r="D154" s="15" t="s">
+      <c r="D154" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>2</v>
@@ -9055,14 +8818,14 @@
       <c r="C155" s="3">
         <v>154</v>
       </c>
-      <c r="D155" s="15" t="s">
+      <c r="D155" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>2</v>
@@ -9079,21 +8842,17 @@
       <c r="C156" s="3">
         <v>155</v>
       </c>
-      <c r="D156" s="15" t="s">
-        <v>869</v>
+      <c r="D156" s="14" t="s">
+        <v>875</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>876</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="F156" s="3">
+        <v>2</v>
+      </c>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
@@ -9105,21 +8864,19 @@
       <c r="C157" s="3">
         <v>156</v>
       </c>
-      <c r="D157" s="15" t="s">
+      <c r="D157" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H157" s="3" t="s">
-        <v>928</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
@@ -9131,19 +8888,21 @@
       <c r="C158" s="3">
         <v>157</v>
       </c>
-      <c r="D158" s="15" t="s">
+      <c r="D158" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H158" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>876</v>
+      </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
@@ -9155,19 +8914,21 @@
       <c r="C159" s="3">
         <v>158</v>
       </c>
-      <c r="D159" s="15" t="s">
+      <c r="D159" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>840</v>
+        <v>158</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H159" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>927</v>
+      </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
@@ -9179,27 +8940,21 @@
       <c r="C160" s="3">
         <v>159</v>
       </c>
-      <c r="D160" s="15" t="s">
-        <v>924</v>
+      <c r="D160" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>845</v>
+        <v>154</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H160" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="J160" s="3">
-        <v>146</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
@@ -9209,27 +8964,21 @@
       <c r="C161" s="3">
         <v>160</v>
       </c>
-      <c r="D161" s="15" t="s">
-        <v>924</v>
+      <c r="D161" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="I161" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="J161" s="3">
-        <v>212</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
@@ -9239,14 +8988,14 @@
       <c r="C162" s="3">
         <v>161</v>
       </c>
-      <c r="D162" s="15" t="s">
+      <c r="D162" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>7</v>
@@ -9258,7 +9007,7 @@
         <v>882</v>
       </c>
       <c r="J162" s="3">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
@@ -9269,21 +9018,27 @@
       <c r="C163" s="3">
         <v>162</v>
       </c>
-      <c r="D163" s="15" t="s">
+      <c r="D163" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>192</v>
+        <v>848</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J163" s="3">
+        <v>212</v>
+      </c>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
       <c r="M163" s="3"/>
@@ -9293,19 +9048,27 @@
       <c r="C164" s="3">
         <v>163</v>
       </c>
-      <c r="D164" s="15" t="s">
-        <v>875</v>
+      <c r="D164" s="14" t="s">
+        <v>924</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F164" s="3">
-        <v>2</v>
-      </c>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J164" s="3">
+        <v>0</v>
+      </c>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
@@ -9315,21 +9078,19 @@
       <c r="C165" s="3">
         <v>164</v>
       </c>
-      <c r="D165" s="15" t="s">
-        <v>869</v>
+      <c r="D165" s="14" t="s">
+        <v>924</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H165" s="3" t="s">
-        <v>929</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
@@ -9341,18 +9102,16 @@
       <c r="C166" s="3">
         <v>165</v>
       </c>
-      <c r="D166" s="15" t="s">
-        <v>869</v>
+      <c r="D166" s="14" t="s">
+        <v>875</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="F166" s="3">
+        <v>2</v>
+      </c>
+      <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -9361,23 +9120,25 @@
       <c r="M166" s="3"/>
       <c r="N166" s="5"/>
     </row>
-    <row r="167" spans="3:14" ht="16.5" customHeight="1">
+    <row r="167" spans="3:14">
       <c r="C167" s="3">
         <v>166</v>
       </c>
-      <c r="D167" s="15" t="s">
+      <c r="D167" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>840</v>
+        <v>158</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H167" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>928</v>
+      </c>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
@@ -9389,57 +9150,45 @@
       <c r="C168" s="3">
         <v>167</v>
       </c>
-      <c r="D168" s="15" t="s">
-        <v>924</v>
+      <c r="D168" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>845</v>
+        <v>154</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="I168" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="J168" s="3">
-        <v>255</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
       <c r="N168" s="5"/>
     </row>
-    <row r="169" spans="3:14">
+    <row r="169" spans="3:14" ht="16.5" customHeight="1">
       <c r="C169" s="3">
         <v>168</v>
       </c>
-      <c r="D169" s="15" t="s">
-        <v>924</v>
+      <c r="D169" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="I169" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="J169" s="3">
-        <v>255</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
@@ -9449,14 +9198,14 @@
       <c r="C170" s="3">
         <v>169</v>
       </c>
-      <c r="D170" s="15" t="s">
+      <c r="D170" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>7</v>
@@ -9468,7 +9217,7 @@
         <v>882</v>
       </c>
       <c r="J170" s="3">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
@@ -9479,21 +9228,27 @@
       <c r="C171" s="3">
         <v>170</v>
       </c>
-      <c r="D171" s="15" t="s">
+      <c r="D171" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>192</v>
+        <v>848</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J171" s="3">
+        <v>255</v>
+      </c>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
@@ -9503,19 +9258,27 @@
       <c r="C172" s="3">
         <v>171</v>
       </c>
-      <c r="D172" s="15" t="s">
-        <v>875</v>
+      <c r="D172" s="14" t="s">
+        <v>924</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F172" s="3">
-        <v>2</v>
-      </c>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J172" s="3">
+        <v>0</v>
+      </c>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
@@ -9525,21 +9288,19 @@
       <c r="C173" s="3">
         <v>172</v>
       </c>
-      <c r="D173" s="15" t="s">
-        <v>869</v>
+      <c r="D173" s="14" t="s">
+        <v>924</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H173" s="3" t="s">
-        <v>930</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
@@ -9551,18 +9312,16 @@
       <c r="C174" s="3">
         <v>173</v>
       </c>
-      <c r="D174" s="15" t="s">
-        <v>869</v>
+      <c r="D174" s="14" t="s">
+        <v>875</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="F174" s="3">
+        <v>2</v>
+      </c>
+      <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
@@ -9571,23 +9330,25 @@
       <c r="M174" s="3"/>
       <c r="N174" s="5"/>
     </row>
-    <row r="175" spans="3:14" ht="16.5" customHeight="1">
+    <row r="175" spans="3:14">
       <c r="C175" s="3">
         <v>174</v>
       </c>
-      <c r="D175" s="15" t="s">
+      <c r="D175" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>840</v>
+        <v>158</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H175" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>929</v>
+      </c>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
@@ -9599,57 +9360,45 @@
       <c r="C176" s="3">
         <v>175</v>
       </c>
-      <c r="D176" s="15" t="s">
-        <v>924</v>
+      <c r="D176" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>845</v>
+        <v>154</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="I176" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="J176" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
       <c r="N176" s="5"/>
     </row>
-    <row r="177" spans="3:14">
+    <row r="177" spans="3:14" ht="16.5" customHeight="1">
       <c r="C177" s="3">
         <v>176</v>
       </c>
-      <c r="D177" s="15" t="s">
-        <v>924</v>
+      <c r="D177" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H177" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="I177" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="J177" s="3">
-        <v>255</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
@@ -9659,14 +9408,14 @@
       <c r="C178" s="3">
         <v>177</v>
       </c>
-      <c r="D178" s="15" t="s">
+      <c r="D178" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>7</v>
@@ -9678,7 +9427,7 @@
         <v>882</v>
       </c>
       <c r="J178" s="3">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
@@ -9689,21 +9438,27 @@
       <c r="C179" s="3">
         <v>178</v>
       </c>
-      <c r="D179" s="15" t="s">
+      <c r="D179" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>192</v>
+        <v>848</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J179" s="3">
+        <v>255</v>
+      </c>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
@@ -9713,19 +9468,27 @@
       <c r="C180" s="3">
         <v>179</v>
       </c>
-      <c r="D180" s="15" t="s">
-        <v>875</v>
+      <c r="D180" s="14" t="s">
+        <v>924</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F180" s="3">
-        <v>2</v>
-      </c>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J180" s="3">
+        <v>255</v>
+      </c>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
@@ -9735,21 +9498,19 @@
       <c r="C181" s="3">
         <v>180</v>
       </c>
-      <c r="D181" s="15" t="s">
-        <v>869</v>
+      <c r="D181" s="14" t="s">
+        <v>924</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H181" s="3" t="s">
-        <v>931</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
@@ -9761,18 +9522,16 @@
       <c r="C182" s="3">
         <v>181</v>
       </c>
-      <c r="D182" s="15" t="s">
-        <v>869</v>
+      <c r="D182" s="14" t="s">
+        <v>875</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="F182" s="3">
+        <v>2</v>
+      </c>
+      <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
@@ -9781,23 +9540,25 @@
       <c r="M182" s="3"/>
       <c r="N182" s="5"/>
     </row>
-    <row r="183" spans="3:14" ht="16.5" customHeight="1">
+    <row r="183" spans="3:14">
       <c r="C183" s="3">
         <v>182</v>
       </c>
-      <c r="D183" s="15" t="s">
+      <c r="D183" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>840</v>
+        <v>158</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H183" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>930</v>
+      </c>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
@@ -9809,57 +9570,45 @@
       <c r="C184" s="3">
         <v>183</v>
       </c>
-      <c r="D184" s="15" t="s">
-        <v>924</v>
+      <c r="D184" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>845</v>
+        <v>154</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H184" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="I184" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="J184" s="3">
-        <v>254</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
       <c r="N184" s="5"/>
     </row>
-    <row r="185" spans="3:14">
+    <row r="185" spans="3:14" ht="16.5" customHeight="1">
       <c r="C185" s="3">
         <v>184</v>
       </c>
-      <c r="D185" s="15" t="s">
-        <v>924</v>
+      <c r="D185" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H185" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="I185" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="J185" s="3">
-        <v>203</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
@@ -9869,14 +9618,14 @@
       <c r="C186" s="3">
         <v>185</v>
       </c>
-      <c r="D186" s="15" t="s">
+      <c r="D186" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>7</v>
@@ -9888,7 +9637,7 @@
         <v>882</v>
       </c>
       <c r="J186" s="3">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
@@ -9899,21 +9648,27 @@
       <c r="C187" s="3">
         <v>186</v>
       </c>
-      <c r="D187" s="15" t="s">
+      <c r="D187" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>192</v>
+        <v>848</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J187" s="3">
+        <v>203</v>
+      </c>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
@@ -9923,19 +9678,27 @@
       <c r="C188" s="3">
         <v>187</v>
       </c>
-      <c r="D188" s="15" t="s">
-        <v>875</v>
+      <c r="D188" s="14" t="s">
+        <v>924</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F188" s="3">
-        <v>2</v>
-      </c>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J188" s="3">
+        <v>0</v>
+      </c>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
@@ -9945,21 +9708,19 @@
       <c r="C189" s="3">
         <v>188</v>
       </c>
-      <c r="D189" s="15" t="s">
-        <v>869</v>
+      <c r="D189" s="14" t="s">
+        <v>924</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H189" s="3" t="s">
-        <v>933</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
@@ -9971,21 +9732,17 @@
       <c r="C190" s="3">
         <v>189</v>
       </c>
-      <c r="D190" s="15" t="s">
-        <v>869</v>
+      <c r="D190" s="14" t="s">
+        <v>875</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H190" s="3" t="s">
-        <v>932</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="F190" s="3">
+        <v>2</v>
+      </c>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
@@ -9997,19 +9754,21 @@
       <c r="C191" s="3">
         <v>190</v>
       </c>
-      <c r="D191" s="15" t="s">
+      <c r="D191" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H191" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>932</v>
+      </c>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
@@ -10017,23 +9776,25 @@
       <c r="M191" s="3"/>
       <c r="N191" s="5"/>
     </row>
-    <row r="192" spans="3:14" ht="16.5" customHeight="1">
+    <row r="192" spans="3:14">
       <c r="C192" s="3">
         <v>191</v>
       </c>
-      <c r="D192" s="15" t="s">
+      <c r="D192" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>840</v>
+        <v>158</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H192" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>931</v>
+      </c>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
@@ -10045,57 +9806,45 @@
       <c r="C193" s="3">
         <v>192</v>
       </c>
-      <c r="D193" s="15" t="s">
-        <v>924</v>
+      <c r="D193" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>845</v>
+        <v>154</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H193" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="I193" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="J193" s="3">
-        <v>196</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
       <c r="M193" s="3"/>
       <c r="N193" s="5"/>
     </row>
-    <row r="194" spans="3:14">
+    <row r="194" spans="3:14" ht="16.5" customHeight="1">
       <c r="C194" s="3">
         <v>193</v>
       </c>
-      <c r="D194" s="15" t="s">
-        <v>924</v>
+      <c r="D194" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H194" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="I194" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="J194" s="3">
-        <v>38</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
       <c r="M194" s="3"/>
@@ -10105,14 +9854,14 @@
       <c r="C195" s="3">
         <v>194</v>
       </c>
-      <c r="D195" s="15" t="s">
+      <c r="D195" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>7</v>
@@ -10124,7 +9873,7 @@
         <v>882</v>
       </c>
       <c r="J195" s="3">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
@@ -10135,21 +9884,27 @@
       <c r="C196" s="3">
         <v>195</v>
       </c>
-      <c r="D196" s="15" t="s">
+      <c r="D196" s="14" t="s">
         <v>924</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>192</v>
+        <v>848</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J196" s="3">
+        <v>38</v>
+      </c>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
       <c r="M196" s="3"/>
@@ -10159,19 +9914,27 @@
       <c r="C197" s="3">
         <v>196</v>
       </c>
-      <c r="D197" s="15" t="s">
-        <v>875</v>
+      <c r="D197" s="14" t="s">
+        <v>924</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F197" s="3">
-        <v>2</v>
-      </c>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J197" s="3">
+        <v>46</v>
+      </c>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
@@ -10181,14 +9944,14 @@
       <c r="C198" s="3">
         <v>197</v>
       </c>
-      <c r="D198" s="15" t="s">
-        <v>869</v>
+      <c r="D198" s="14" t="s">
+        <v>924</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>2</v>
@@ -10201,15 +9964,19 @@
       <c r="M198" s="3"/>
       <c r="N198" s="5"/>
     </row>
-    <row r="199" spans="3:14" ht="15">
+    <row r="199" spans="3:14">
       <c r="C199" s="3">
         <v>198</v>
       </c>
-      <c r="D199" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
+      <c r="D199" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="F199" s="3">
+        <v>2</v>
+      </c>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
@@ -10223,14 +9990,14 @@
       <c r="C200" s="3">
         <v>199</v>
       </c>
-      <c r="D200" s="15" t="s">
+      <c r="D200" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>41</v>
+        <v>939</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>2</v>
@@ -10243,22 +10010,16 @@
       <c r="M200" s="3"/>
       <c r="N200" s="5"/>
     </row>
-    <row r="201" spans="3:14">
+    <row r="201" spans="3:14" ht="15">
       <c r="C201" s="3">
         <v>200</v>
       </c>
-      <c r="D201" s="15" t="s">
-        <v>869</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G201" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D201" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
@@ -10271,16 +10032,18 @@
       <c r="C202" s="3">
         <v>201</v>
       </c>
-      <c r="D202" s="15" t="s">
-        <v>881</v>
+      <c r="D202" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F202" s="3">
-        <v>2</v>
-      </c>
-      <c r="G202" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
@@ -10293,14 +10056,14 @@
       <c r="C203" s="3">
         <v>202</v>
       </c>
-      <c r="D203" s="15" t="s">
+      <c r="D203" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>191</v>
+        <v>883</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>840</v>
+        <v>169</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>2</v>
@@ -10317,27 +10080,19 @@
       <c r="C204" s="3">
         <v>203</v>
       </c>
-      <c r="D204" s="15" t="s">
-        <v>869</v>
+      <c r="D204" s="14" t="s">
+        <v>881</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H204" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="I204" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="J204" s="3">
-        <v>254</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="F204" s="3">
+        <v>2</v>
+      </c>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
@@ -10347,27 +10102,21 @@
       <c r="C205" s="3">
         <v>204</v>
       </c>
-      <c r="D205" s="15" t="s">
+      <c r="D205" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H205" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="I205" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="J205" s="3">
-        <v>203</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3"/>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
       <c r="M205" s="3"/>
@@ -10377,14 +10126,14 @@
       <c r="C206" s="3">
         <v>205</v>
       </c>
-      <c r="D206" s="15" t="s">
+      <c r="D206" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>7</v>
@@ -10396,7 +10145,7 @@
         <v>882</v>
       </c>
       <c r="J206" s="3">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
@@ -10407,138 +10156,152 @@
       <c r="C207" s="3">
         <v>206</v>
       </c>
-      <c r="D207" s="15" t="s">
+      <c r="D207" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
+        <v>835</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J207" s="3">
+        <v>203</v>
+      </c>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
       <c r="M207" s="3"/>
-      <c r="N207" s="16"/>
+      <c r="N207" s="5"/>
     </row>
     <row r="208" spans="3:14">
       <c r="C208" s="3">
         <v>207</v>
       </c>
-      <c r="D208" s="15" t="s">
+      <c r="D208" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="I208" s="3"/>
-      <c r="J208" s="3"/>
+        <v>835</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J208" s="3">
+        <v>0</v>
+      </c>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
-      <c r="N208" s="16"/>
+      <c r="N208" s="5"/>
     </row>
     <row r="209" spans="3:14">
       <c r="C209" s="3">
         <v>208</v>
       </c>
-      <c r="D209" s="15" t="s">
+      <c r="D209" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>935</v>
+        <v>917</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
       <c r="M209" s="3"/>
-      <c r="N209" s="16"/>
+      <c r="N209" s="15"/>
     </row>
     <row r="210" spans="3:14">
       <c r="C210" s="3">
         <v>209</v>
       </c>
-      <c r="D210" s="15" t="s">
+      <c r="D210" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H210" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>918</v>
+      </c>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
       <c r="M210" s="3"/>
-      <c r="N210" s="16"/>
+      <c r="N210" s="15"/>
     </row>
     <row r="211" spans="3:14">
       <c r="C211" s="3">
         <v>210</v>
       </c>
-      <c r="D211" s="15" t="s">
-        <v>875</v>
+      <c r="D211" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F211" s="3">
-        <v>2</v>
-      </c>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>934</v>
+      </c>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
       <c r="M211" s="3"/>
-      <c r="N211" s="16"/>
+      <c r="N211" s="15"/>
     </row>
     <row r="212" spans="3:14">
       <c r="C212" s="3">
         <v>211</v>
       </c>
-      <c r="D212" s="15" t="s">
+      <c r="D212" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>17</v>
+        <v>853</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>2</v>
@@ -10549,46 +10312,46 @@
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
       <c r="M212" s="3"/>
-      <c r="N212" s="5"/>
+      <c r="N212" s="15"/>
     </row>
     <row r="213" spans="3:14">
       <c r="C213" s="3">
         <v>212</v>
       </c>
-      <c r="D213" s="15" t="s">
-        <v>869</v>
+      <c r="D213" s="14" t="s">
+        <v>875</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G213" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="F213" s="3">
+        <v>2</v>
+      </c>
+      <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
       <c r="M213" s="3"/>
-      <c r="N213" s="5"/>
+      <c r="N213" s="15"/>
     </row>
     <row r="214" spans="3:14">
       <c r="C214" s="3">
         <v>213</v>
       </c>
-      <c r="D214" s="15" t="s">
-        <v>881</v>
+      <c r="D214" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F214" s="3">
-        <v>2</v>
-      </c>
-      <c r="G214" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
@@ -10601,14 +10364,14 @@
       <c r="C215" s="3">
         <v>214</v>
       </c>
-      <c r="D215" s="15" t="s">
+      <c r="D215" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>191</v>
+        <v>883</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>840</v>
+        <v>170</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>2</v>
@@ -10625,27 +10388,19 @@
       <c r="C216" s="3">
         <v>215</v>
       </c>
-      <c r="D216" s="15" t="s">
-        <v>869</v>
+      <c r="D216" s="14" t="s">
+        <v>881</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H216" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="I216" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="J216" s="3">
-        <v>196</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="F216" s="3">
+        <v>2</v>
+      </c>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3"/>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
       <c r="M216" s="3"/>
@@ -10655,27 +10410,21 @@
       <c r="C217" s="3">
         <v>216</v>
       </c>
-      <c r="D217" s="15" t="s">
+      <c r="D217" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H217" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="I217" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="J217" s="3">
-        <v>38</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3"/>
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
       <c r="M217" s="3"/>
@@ -10685,14 +10434,14 @@
       <c r="C218" s="3">
         <v>217</v>
       </c>
-      <c r="D218" s="15" t="s">
+      <c r="D218" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>7</v>
@@ -10704,7 +10453,7 @@
         <v>882</v>
       </c>
       <c r="J218" s="3">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
@@ -10715,138 +10464,152 @@
       <c r="C219" s="3">
         <v>218</v>
       </c>
-      <c r="D219" s="15" t="s">
+      <c r="D219" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
+        <v>835</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J219" s="3">
+        <v>38</v>
+      </c>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
       <c r="M219" s="3"/>
-      <c r="N219" s="16"/>
+      <c r="N219" s="5"/>
     </row>
     <row r="220" spans="3:14">
       <c r="C220" s="3">
         <v>219</v>
       </c>
-      <c r="D220" s="15" t="s">
+      <c r="D220" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="I220" s="3"/>
-      <c r="J220" s="3"/>
+        <v>835</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J220" s="3">
+        <v>46</v>
+      </c>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
       <c r="M220" s="3"/>
-      <c r="N220" s="16"/>
+      <c r="N220" s="5"/>
     </row>
     <row r="221" spans="3:14">
       <c r="C221" s="3">
         <v>220</v>
       </c>
-      <c r="D221" s="15" t="s">
+      <c r="D221" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>880</v>
+        <v>914</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
       <c r="M221" s="3"/>
-      <c r="N221" s="16"/>
+      <c r="N221" s="15"/>
     </row>
     <row r="222" spans="3:14">
       <c r="C222" s="3">
         <v>221</v>
       </c>
-      <c r="D222" s="15" t="s">
+      <c r="D222" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H222" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
       <c r="M222" s="3"/>
-      <c r="N222" s="16"/>
+      <c r="N222" s="15"/>
     </row>
     <row r="223" spans="3:14">
       <c r="C223" s="3">
         <v>222</v>
       </c>
-      <c r="D223" s="15" t="s">
-        <v>875</v>
+      <c r="D223" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="F223" s="3">
-        <v>2</v>
-      </c>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>880</v>
+      </c>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
       <c r="M223" s="3"/>
-      <c r="N223" s="16"/>
+      <c r="N223" s="15"/>
     </row>
     <row r="224" spans="3:14">
       <c r="C224" s="3">
         <v>223</v>
       </c>
-      <c r="D224" s="15" t="s">
+      <c r="D224" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>17</v>
+        <v>853</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>2</v>
@@ -10857,42 +10620,46 @@
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
       <c r="M224" s="3"/>
-      <c r="N224" s="5"/>
+      <c r="N224" s="15"/>
     </row>
     <row r="225" spans="3:14">
       <c r="C225" s="3">
         <v>224</v>
       </c>
-      <c r="D225" s="15" t="s">
-        <v>869</v>
+      <c r="D225" s="14" t="s">
+        <v>875</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="F225" s="3">
+        <v>2</v>
+      </c>
+      <c r="G225" s="3"/>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
       <c r="M225" s="3"/>
-      <c r="N225" s="5"/>
-    </row>
-    <row r="226" spans="3:14" ht="15">
+      <c r="N225" s="15"/>
+    </row>
+    <row r="226" spans="3:14">
       <c r="C226" s="3">
         <v>225</v>
       </c>
-      <c r="D226" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
+      <c r="D226" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
@@ -10905,19 +10672,19 @@
       <c r="C227" s="3">
         <v>226</v>
       </c>
-      <c r="D227" s="15" t="s">
+      <c r="D227" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>19</v>
+        <v>883</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H227" s="8"/>
+      <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
@@ -10929,21 +10696,19 @@
       <c r="C228" s="3">
         <v>227</v>
       </c>
-      <c r="D228" s="15" t="s">
+      <c r="D228" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H228" s="3" t="s">
-        <v>876</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H228" s="7"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
@@ -10955,20 +10720,20 @@
       <c r="C229" s="3">
         <v>228</v>
       </c>
-      <c r="D229" s="15" t="s">
+      <c r="D229" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H229" s="8" t="s">
-        <v>921</v>
+        <v>13</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>876</v>
       </c>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
@@ -10981,19 +10746,21 @@
       <c r="C230" s="3">
         <v>229</v>
       </c>
-      <c r="D230" s="15" t="s">
+      <c r="D230" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H230" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H230" s="7" t="s">
+        <v>921</v>
+      </c>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
@@ -11005,7 +10772,7 @@
       <c r="C231" s="3">
         <v>230</v>
       </c>
-      <c r="D231" s="15" t="s">
+      <c r="D231" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E231" s="3" t="s">
@@ -11023,127 +10790,109 @@
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
       <c r="M231" s="3"/>
-      <c r="N231" s="16"/>
-    </row>
-    <row r="232" spans="3:14">
+      <c r="N231" s="15"/>
+    </row>
+    <row r="232" spans="3:14" ht="14.25" customHeight="1">
       <c r="C232" s="3">
         <v>231</v>
       </c>
-      <c r="D232" s="15" t="s">
+      <c r="D232" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>845</v>
+        <v>17</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H232" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="I232" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="J232" s="3">
-        <v>196</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H232" s="3"/>
+      <c r="I232" s="3"/>
+      <c r="J232" s="3"/>
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
       <c r="M232" s="3"/>
-      <c r="N232" s="16"/>
+      <c r="N232" s="15"/>
     </row>
     <row r="233" spans="3:14">
       <c r="C233" s="3">
         <v>232</v>
       </c>
-      <c r="D233" s="15" t="s">
-        <v>869</v>
+      <c r="D233" s="14" t="s">
+        <v>875</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F233" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="G233" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H233" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="I233" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="J233" s="3">
-        <v>38</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="F233" s="3">
+        <v>2</v>
+      </c>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
+      <c r="I233" s="3"/>
+      <c r="J233" s="3"/>
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
       <c r="M233" s="3"/>
-      <c r="N233" s="16"/>
+      <c r="N233" s="15"/>
     </row>
     <row r="234" spans="3:14">
       <c r="C234" s="3">
         <v>233</v>
       </c>
-      <c r="D234" s="15" t="s">
+      <c r="D234" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>851</v>
+        <v>51</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H234" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="I234" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="J234" s="3">
-        <v>46</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H234" s="7"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
       <c r="M234" s="3"/>
-      <c r="N234" s="16"/>
+      <c r="N234" s="5"/>
     </row>
     <row r="235" spans="3:14">
       <c r="C235" s="3">
         <v>234</v>
       </c>
-      <c r="D235" s="15" t="s">
+      <c r="D235" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H235" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>876</v>
+      </c>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
       <c r="M235" s="3"/>
-      <c r="N235" s="16"/>
+      <c r="N235" s="5"/>
     </row>
     <row r="236" spans="3:14">
       <c r="C236" s="3">
         <v>235</v>
       </c>
-      <c r="D236" s="15" t="s">
+      <c r="D236" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E236" s="3" t="s">
@@ -11155,8 +10904,8 @@
       <c r="G236" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H236" s="8" t="s">
-        <v>926</v>
+      <c r="H236" s="7" t="s">
+        <v>921</v>
       </c>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
@@ -11169,7 +10918,7 @@
       <c r="C237" s="3">
         <v>236</v>
       </c>
-      <c r="D237" s="15" t="s">
+      <c r="D237" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E237" s="3" t="s">
@@ -11193,14 +10942,14 @@
       <c r="C238" s="3">
         <v>237</v>
       </c>
-      <c r="D238" s="15" t="s">
+      <c r="D238" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>153</v>
+        <v>840</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>2</v>
@@ -11211,13 +10960,13 @@
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
       <c r="M238" s="3"/>
-      <c r="N238" s="16"/>
+      <c r="N238" s="15"/>
     </row>
     <row r="239" spans="3:14">
       <c r="C239" s="3">
         <v>238</v>
       </c>
-      <c r="D239" s="15" t="s">
+      <c r="D239" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E239" s="3" t="s">
@@ -11236,18 +10985,18 @@
         <v>836</v>
       </c>
       <c r="J239" s="3">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
       <c r="M239" s="3"/>
-      <c r="N239" s="16"/>
+      <c r="N239" s="15"/>
     </row>
     <row r="240" spans="3:14">
       <c r="C240" s="3">
         <v>239</v>
       </c>
-      <c r="D240" s="15" t="s">
+      <c r="D240" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E240" s="3" t="s">
@@ -11266,18 +11015,18 @@
         <v>836</v>
       </c>
       <c r="J240" s="3">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
       <c r="M240" s="3"/>
-      <c r="N240" s="16"/>
+      <c r="N240" s="15"/>
     </row>
     <row r="241" spans="3:14">
       <c r="C241" s="3">
         <v>240</v>
       </c>
-      <c r="D241" s="15" t="s">
+      <c r="D241" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E241" s="3" t="s">
@@ -11296,18 +11045,18 @@
         <v>836</v>
       </c>
       <c r="J241" s="3">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
       <c r="M241" s="3"/>
-      <c r="N241" s="16"/>
+      <c r="N241" s="15"/>
     </row>
     <row r="242" spans="3:14">
       <c r="C242" s="3">
         <v>241</v>
       </c>
-      <c r="D242" s="15" t="s">
+      <c r="D242" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E242" s="3" t="s">
@@ -11325,26 +11074,28 @@
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
       <c r="M242" s="3"/>
-      <c r="N242" s="16"/>
+      <c r="N242" s="15"/>
     </row>
     <row r="243" spans="3:14">
       <c r="C243" s="3">
         <v>242</v>
       </c>
-      <c r="D243" s="15" t="s">
+      <c r="D243" s="14" t="s">
         <v>869</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F243" s="8" t="s">
-        <v>146</v>
+      <c r="F243" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H243" s="8"/>
-      <c r="I243" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="I243" s="3"/>
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
@@ -11352,13 +11103,23 @@
       <c r="N243" s="5"/>
     </row>
     <row r="244" spans="3:14">
-      <c r="C244" s="3"/>
-      <c r="D244" s="7"/>
-      <c r="E244" s="8"/>
-      <c r="F244" s="8"/>
-      <c r="G244" s="8"/>
-      <c r="H244" s="8"/>
-      <c r="I244" s="8"/>
+      <c r="C244" s="3">
+        <v>243</v>
+      </c>
+      <c r="D244" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
@@ -11366,254 +11127,646 @@
       <c r="N244" s="5"/>
     </row>
     <row r="245" spans="3:14">
-      <c r="C245" s="3"/>
-      <c r="D245" s="7"/>
-      <c r="E245" s="8"/>
-      <c r="F245" s="8"/>
-      <c r="G245" s="8"/>
-      <c r="H245" s="8"/>
-      <c r="I245" s="8"/>
+      <c r="C245" s="3">
+        <v>244</v>
+      </c>
+      <c r="D245" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H245" s="3"/>
+      <c r="I245" s="3"/>
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
       <c r="M245" s="3"/>
-      <c r="N245" s="5"/>
+      <c r="N245" s="15"/>
     </row>
     <row r="246" spans="3:14">
-      <c r="C246" s="3"/>
-      <c r="D246" s="7"/>
-      <c r="E246" s="8"/>
-      <c r="F246" s="8"/>
-      <c r="G246" s="8"/>
-      <c r="H246" s="8"/>
-      <c r="I246" s="8"/>
-      <c r="J246" s="3"/>
+      <c r="C246" s="3">
+        <v>245</v>
+      </c>
+      <c r="D246" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="I246" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="J246" s="3">
+        <v>254</v>
+      </c>
       <c r="K246" s="3"/>
       <c r="L246" s="3"/>
       <c r="M246" s="3"/>
-      <c r="N246" s="5"/>
+      <c r="N246" s="15"/>
     </row>
     <row r="247" spans="3:14">
-      <c r="C247" s="3"/>
-      <c r="D247" s="7"/>
-      <c r="E247" s="8"/>
-      <c r="F247" s="8"/>
-      <c r="G247" s="8"/>
-      <c r="H247" s="3"/>
-      <c r="I247" s="8"/>
-      <c r="J247" s="3"/>
+      <c r="C247" s="3">
+        <v>246</v>
+      </c>
+      <c r="D247" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="J247" s="3">
+        <v>203</v>
+      </c>
       <c r="K247" s="3"/>
       <c r="L247" s="3"/>
       <c r="M247" s="3"/>
-      <c r="N247" s="5"/>
+      <c r="N247" s="15"/>
     </row>
     <row r="248" spans="3:14">
-      <c r="C248" s="3"/>
-      <c r="D248" s="7"/>
-      <c r="E248" s="8"/>
-      <c r="F248" s="8"/>
-      <c r="G248" s="8"/>
-      <c r="H248" s="3"/>
-      <c r="I248" s="8"/>
-      <c r="J248" s="3"/>
+      <c r="C248" s="3">
+        <v>247</v>
+      </c>
+      <c r="D248" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="J248" s="3">
+        <v>0</v>
+      </c>
       <c r="K248" s="3"/>
       <c r="L248" s="3"/>
       <c r="M248" s="3"/>
-      <c r="N248" s="5"/>
+      <c r="N248" s="15"/>
     </row>
     <row r="249" spans="3:14">
-      <c r="C249" s="3"/>
-      <c r="D249" s="7"/>
-      <c r="E249" s="8"/>
-      <c r="F249" s="8"/>
-      <c r="G249" s="8"/>
-      <c r="H249" s="8"/>
-      <c r="I249" s="8"/>
+      <c r="C249" s="3">
+        <v>248</v>
+      </c>
+      <c r="D249" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H249" s="3"/>
+      <c r="I249" s="3"/>
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
       <c r="M249" s="3"/>
-      <c r="N249" s="5"/>
+      <c r="N249" s="15"/>
     </row>
     <row r="250" spans="3:14">
-      <c r="C250" s="3"/>
-      <c r="D250" s="7"/>
-      <c r="E250" s="8"/>
-      <c r="F250" s="8"/>
-      <c r="G250" s="8"/>
-      <c r="H250" s="8"/>
-      <c r="I250" s="3"/>
-      <c r="J250" s="8"/>
+      <c r="C250" s="3">
+        <v>249</v>
+      </c>
+      <c r="D250" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F250" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H250" s="7"/>
+      <c r="I250" s="7"/>
+      <c r="J250" s="3"/>
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
       <c r="M250" s="3"/>
       <c r="N250" s="5"/>
     </row>
-    <row r="251" spans="3:14">
-      <c r="C251" s="3"/>
-      <c r="D251" s="7"/>
-      <c r="E251" s="8"/>
-      <c r="F251" s="8"/>
-      <c r="G251" s="8"/>
-      <c r="H251" s="8"/>
-      <c r="I251" s="3"/>
-      <c r="J251" s="8"/>
+    <row r="251" spans="3:14" ht="15">
+      <c r="C251" s="3">
+        <v>250</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
+      <c r="G251" s="7"/>
+      <c r="H251" s="7"/>
+      <c r="I251" s="7"/>
+      <c r="J251" s="3"/>
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
       <c r="M251" s="3"/>
       <c r="N251" s="5"/>
     </row>
     <row r="252" spans="3:14">
-      <c r="C252" s="3"/>
-      <c r="D252" s="7"/>
-      <c r="E252" s="8"/>
-      <c r="F252" s="8"/>
-      <c r="G252" s="8"/>
-      <c r="H252" s="8"/>
-      <c r="I252" s="8"/>
+      <c r="C252" s="3">
+        <v>251</v>
+      </c>
+      <c r="D252" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H252" s="3"/>
+      <c r="I252" s="3"/>
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
       <c r="M252" s="3"/>
-      <c r="N252" s="5"/>
+      <c r="N252" s="15"/>
     </row>
     <row r="253" spans="3:14">
-      <c r="C253" s="3"/>
-      <c r="D253" s="7"/>
-      <c r="E253" s="8"/>
-      <c r="F253" s="8"/>
-      <c r="G253" s="8"/>
-      <c r="H253" s="8"/>
-      <c r="I253" s="8"/>
+      <c r="C253" s="3">
+        <v>252</v>
+      </c>
+      <c r="D253" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H253" s="3"/>
+      <c r="I253" s="3"/>
       <c r="J253" s="3"/>
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
       <c r="M253" s="3"/>
-      <c r="N253" s="5"/>
+      <c r="N253" s="15"/>
     </row>
     <row r="254" spans="3:14">
-      <c r="C254" s="3"/>
-      <c r="D254" s="7"/>
-      <c r="E254" s="8"/>
-      <c r="F254" s="8"/>
-      <c r="G254" s="8"/>
-      <c r="H254" s="8"/>
-      <c r="I254" s="8"/>
+      <c r="C254" s="3">
+        <v>253</v>
+      </c>
+      <c r="D254" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H254" s="3"/>
+      <c r="I254" s="3"/>
       <c r="J254" s="3"/>
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
       <c r="M254" s="3"/>
-      <c r="N254" s="5"/>
+      <c r="N254" s="15"/>
     </row>
     <row r="255" spans="3:14">
-      <c r="C255" s="3"/>
-      <c r="D255" s="7"/>
-      <c r="E255" s="8"/>
-      <c r="F255" s="8"/>
-      <c r="G255" s="8"/>
-      <c r="H255" s="8"/>
-      <c r="I255" s="8"/>
+      <c r="C255" s="3">
+        <v>254</v>
+      </c>
+      <c r="D255" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H255" s="3"/>
+      <c r="I255" s="3"/>
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
       <c r="M255" s="3"/>
-      <c r="N255" s="5"/>
+      <c r="N255" s="15"/>
     </row>
     <row r="256" spans="3:14">
-      <c r="C256" s="3"/>
-      <c r="D256" s="7"/>
-      <c r="E256" s="8"/>
-      <c r="F256" s="8"/>
-      <c r="G256" s="8"/>
-      <c r="H256" s="8"/>
-      <c r="I256" s="8"/>
+      <c r="C256" s="3">
+        <v>255</v>
+      </c>
+      <c r="D256" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H256" s="3"/>
+      <c r="I256" s="3"/>
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
       <c r="M256" s="3"/>
-      <c r="N256" s="5"/>
+      <c r="N256" s="15"/>
     </row>
     <row r="257" spans="3:14">
-      <c r="C257" s="3"/>
-      <c r="D257" s="7"/>
-      <c r="E257" s="8"/>
-      <c r="F257" s="8"/>
-      <c r="G257" s="8"/>
-      <c r="H257" s="8"/>
-      <c r="I257" s="8"/>
-      <c r="J257" s="3"/>
+      <c r="C257" s="3">
+        <v>256</v>
+      </c>
+      <c r="D257" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J257" s="3">
+        <v>255</v>
+      </c>
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
       <c r="M257" s="3"/>
       <c r="N257" s="5"/>
     </row>
     <row r="258" spans="3:14">
-      <c r="C258" s="3"/>
-      <c r="D258" s="7"/>
-      <c r="E258" s="8"/>
-      <c r="F258" s="8"/>
-      <c r="G258" s="8"/>
-      <c r="H258" s="8"/>
-      <c r="I258" s="8"/>
-      <c r="J258" s="3"/>
+      <c r="C258" s="3">
+        <v>257</v>
+      </c>
+      <c r="D258" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J258" s="3">
+        <v>255</v>
+      </c>
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
       <c r="M258" s="3"/>
       <c r="N258" s="5"/>
     </row>
     <row r="259" spans="3:14">
-      <c r="C259" s="3"/>
-      <c r="D259" s="7"/>
-      <c r="E259" s="8"/>
-      <c r="F259" s="8"/>
-      <c r="G259" s="8"/>
-      <c r="H259" s="8"/>
-      <c r="I259" s="8"/>
-      <c r="J259" s="3"/>
+      <c r="C259" s="3">
+        <v>258</v>
+      </c>
+      <c r="D259" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="J259" s="3">
+        <v>0</v>
+      </c>
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
       <c r="M259" s="3"/>
       <c r="N259" s="5"/>
     </row>
     <row r="260" spans="3:14">
-      <c r="C260" s="3"/>
-      <c r="D260" s="15"/>
-      <c r="E260" s="3"/>
-      <c r="F260" s="3"/>
-      <c r="G260" s="3"/>
-      <c r="H260" s="3"/>
+      <c r="C260" s="3">
+        <v>259</v>
+      </c>
+      <c r="D260" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>937</v>
+      </c>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
       <c r="M260" s="3"/>
-      <c r="N260" s="5"/>
+      <c r="N260" s="15"/>
+    </row>
+    <row r="261" spans="3:14">
+      <c r="C261" s="3">
+        <v>260</v>
+      </c>
+      <c r="D261" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="I261" s="3"/>
+      <c r="J261" s="3"/>
+      <c r="K261" s="3"/>
+      <c r="L261" s="3"/>
+      <c r="M261" s="3"/>
+      <c r="N261" s="15"/>
+    </row>
+    <row r="262" spans="3:14">
+      <c r="C262" s="3">
+        <v>261</v>
+      </c>
+      <c r="D262" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="I262" s="3"/>
+      <c r="J262" s="3"/>
+      <c r="K262" s="3"/>
+      <c r="L262" s="3"/>
+      <c r="M262" s="3"/>
+      <c r="N262" s="15"/>
+    </row>
+    <row r="263" spans="3:14">
+      <c r="C263" s="3">
+        <v>262</v>
+      </c>
+      <c r="D263" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H263" s="3"/>
+      <c r="I263" s="3"/>
+      <c r="J263" s="3"/>
+      <c r="K263" s="3"/>
+      <c r="L263" s="3"/>
+      <c r="M263" s="3"/>
+      <c r="N263" s="15"/>
+    </row>
+    <row r="264" spans="3:14">
+      <c r="C264" s="3">
+        <v>263</v>
+      </c>
+      <c r="D264" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="F264" s="3">
+        <v>2</v>
+      </c>
+      <c r="G264" s="3"/>
+      <c r="H264" s="3"/>
+      <c r="I264" s="3"/>
+      <c r="J264" s="3"/>
+      <c r="K264" s="3"/>
+      <c r="L264" s="3"/>
+      <c r="M264" s="3"/>
+      <c r="N264" s="15"/>
+    </row>
+    <row r="265" spans="3:14">
+      <c r="C265" s="3">
+        <v>264</v>
+      </c>
+      <c r="D265" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H265" s="3"/>
+      <c r="I265" s="3"/>
+      <c r="J265" s="3"/>
+      <c r="K265" s="3"/>
+      <c r="L265" s="3"/>
+      <c r="M265" s="3"/>
+      <c r="N265" s="5"/>
+    </row>
+    <row r="266" spans="3:14">
+      <c r="C266" s="3">
+        <v>265</v>
+      </c>
+      <c r="D266" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H266" s="3"/>
+      <c r="I266" s="3"/>
+      <c r="J266" s="3"/>
+      <c r="K266" s="3"/>
+      <c r="L266" s="3"/>
+      <c r="M266" s="3"/>
+      <c r="N266" s="5"/>
+    </row>
+    <row r="267" spans="3:14" ht="15">
+      <c r="C267" s="3"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="3"/>
+      <c r="H267" s="3"/>
+      <c r="I267" s="3"/>
+      <c r="J267" s="3"/>
+      <c r="K267" s="3"/>
+      <c r="L267" s="3"/>
+      <c r="M267" s="3"/>
+      <c r="N267" s="15"/>
+    </row>
+    <row r="268" spans="3:14">
+      <c r="C268" s="3"/>
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+      <c r="G268" s="3"/>
+      <c r="H268" s="3"/>
+      <c r="I268" s="3"/>
+      <c r="J268" s="3"/>
+      <c r="K268" s="3"/>
+      <c r="L268" s="3"/>
+      <c r="M268" s="15"/>
+    </row>
+    <row r="269" spans="3:14">
+      <c r="C269" s="3"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="3"/>
+      <c r="H269" s="3"/>
+      <c r="I269" s="3"/>
+      <c r="J269" s="3"/>
+      <c r="K269" s="3"/>
+      <c r="L269" s="3"/>
+      <c r="M269" s="15"/>
+    </row>
+    <row r="270" spans="3:14" ht="15">
+      <c r="C270" s="4"/>
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+      <c r="G270" s="3"/>
+      <c r="H270" s="3"/>
+      <c r="I270" s="3"/>
+      <c r="J270" s="3"/>
+      <c r="K270" s="3"/>
+      <c r="L270" s="3"/>
+      <c r="M270" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N260">
-    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="M252:M270 N2:N267">
+    <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F268:F270 G2:G267">
+      <formula1>INDIRECT(SUBSTITUTE(D2&amp;E2," ",""))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E268:E270 F201:F267 F2:F199">
+      <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(D2&amp;"Col")),1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D268:D270 E2:E267">
+      <formula1>Forms</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D7">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G260">
-      <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F260">
-      <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E260">
-      <formula1>Forms</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11621,14 +11774,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CK125"/>
   <sheetViews>
-    <sheetView topLeftCell="CA1" workbookViewId="0">
-      <selection activeCell="CK7" sqref="CK7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="34.25" customWidth="1"/>
     <col min="7" max="7" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11903,7 +12057,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>942</v>
       </c>
       <c r="G2" t="s">
         <v>192</v>
@@ -14844,6 +14998,9 @@
       </c>
       <c r="E47" t="s">
         <v>72</v>
+      </c>
+      <c r="F47" t="s">
+        <v>943</v>
       </c>
       <c r="AQ47" t="s">
         <v>480</v>
